--- a/ATZ.TO.xlsx
+++ b/ATZ.TO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4615D1F3-673D-4C3C-8495-BD4A5988508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD71205-482A-4AB5-A095-40CCB3B1C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{E71EBA8B-81A0-4052-8E40-AA6EDCFEA8B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E71EBA8B-81A0-4052-8E40-AA6EDCFEA8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -169,13 +169,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -200,6 +206,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,19 +240,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -572,83 +599,84 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>112.78400000000001</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <f>+H2*H3</f>
         <v>7939.9936000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="9">
         <v>207.00700000000001</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <f>+H4-H5+H6</f>
         <v>7732.9866000000011</v>
       </c>
@@ -2064,7 +2092,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="6" t="e">
-        <f t="shared" ref="C23:I23" si="9">+C9/C7</f>
+        <f t="shared" ref="C23:H23" si="9">+C9/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D23" s="6" t="e">
@@ -2153,7 +2181,7 @@
         <v>39</v>
       </c>
       <c r="C24" s="6" t="e">
-        <f t="shared" ref="C24:I24" si="10">+C12/C7</f>
+        <f t="shared" ref="C24:H24" si="10">+C12/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="6" t="e">
@@ -2242,7 +2270,7 @@
         <v>40</v>
       </c>
       <c r="C25" s="6" t="e">
-        <f t="shared" ref="C25:I25" si="11">+C16/C15</f>
+        <f t="shared" ref="C25:H25" si="11">+C16/C15</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D25" s="6" t="e">
